--- a/medicine/Mort/Faux_Départ_(film,_2010)/Faux_Départ_(film,_2010).xlsx
+++ b/medicine/Mort/Faux_Départ_(film,_2010)/Faux_Départ_(film,_2010).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faux_D%C3%A9part_(film,_2010)</t>
+          <t>Faux_Départ_(film,_2010)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faux Départ (sous-titré Enquête sur les expériences de mort imminente) est un documentaire réalisé par Sonia Barkallah et produit par S17 Production, sorti en 2010 en DVD.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faux_D%C3%A9part_(film,_2010)</t>
+          <t>Faux_Départ_(film,_2010)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Faux Départ est un documentaire écrit, produit et réalisé en 2009 par Sonia Barkallah. Ce film, entièrement consacré au phénomène des EMI (expériences de mort imminente ou NDE en anglais), est un travail de 4 ans d'enquête auprès de scientifiques, médecins et personnes qui ont vécu une EMI. 
-Depuis 2010, ce film est une référence à l’unité de soins palliatifs du CHU de La Timone à Marseille[1][source insuffisante].
+Depuis 2010, ce film est une référence à l’unité de soins palliatifs du CHU de La Timone à Marseille[source insuffisante].
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faux_D%C3%A9part_(film,_2010)</t>
+          <t>Faux_Départ_(film,_2010)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Sonia Barkallah
 Montage : Léanie Guérette
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faux_D%C3%A9part_(film,_2010)</t>
+          <t>Faux_Départ_(film,_2010)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Intervenants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raymond Moody
 Pim van Lommel
